--- a/biology/Zoologie/Aniksosaurus/Aniksosaurus.xlsx
+++ b/biology/Zoologie/Aniksosaurus/Aniksosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aniksosaurus (« lézard du printemps ») est un genre de dinosaures théropodes carnivores bipèdes qui vivaient dans ce qui est maintenant l'Argentine au Crétacé supérieur (du Cénomanien au Turonien (99,6 à 89,3 millions d’années)). Il a été découvert en 1997 dans la Formation de Bajo Barreal (Province de Chubut) en Patagonie.
 C'était un coelurosaure. L'espèce type, Aniksosaurus darwini, a été décrite par Martínez et Novas en 2006. Son nom générique signifie lézard du printemps ; l'épithète spécifique honore Charles Darwin.
@@ -516,7 +528,9 @@
           <t>Inventaire des fossiles retrouvés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Vertèbres, os du bassin et des membres.</t>
         </is>
@@ -546,7 +560,9 @@
           <t>Lien interne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voir Liste des dinosaures</t>
         </is>
@@ -576,7 +592,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Description originale (anglais)
 Sur les autres projets Wikimedia :
